--- a/analyses/trees/RNA2/RNA2_Seq_IDs.xlsx
+++ b/analyses/trees/RNA2/RNA2_Seq_IDs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/diverse_collections/analyses/trees/RNA2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/diverse_collections/github/analyses/trees/RNA2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7731BA42-C3A5-3F4E-9553-CC6B8C2F4B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8959359-85E7-7A4D-BBF0-2DBFA6926AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33800" yWindow="500" windowWidth="26840" windowHeight="15940" xr2:uid="{1ABCC1F6-95A5-2146-8F8C-226ACC8CFFC1}"/>
   </bookViews>
@@ -826,85 +826,85 @@
     <t>SRX10234776_RNA2</t>
   </si>
   <si>
-    <t>SRX10234776</t>
-  </si>
-  <si>
     <t>SRX10234777_RNA2</t>
   </si>
   <si>
-    <t>SRX10234777</t>
-  </si>
-  <si>
     <t>SRX10234778_RNA2</t>
   </si>
   <si>
-    <t>SRX10234778</t>
-  </si>
-  <si>
     <t>SRX10234779_RNA2</t>
   </si>
   <si>
-    <t>SRX10234779</t>
-  </si>
-  <si>
     <t>SRX10234780_RNA2</t>
   </si>
   <si>
-    <t>SRX10234780</t>
-  </si>
-  <si>
     <t>SRX10234781_RNA2</t>
   </si>
   <si>
-    <t>SRX10234781</t>
-  </si>
-  <si>
     <t>SRX10234782_RNA2</t>
   </si>
   <si>
-    <t>SRX10234782</t>
-  </si>
-  <si>
     <t>SRX10234784_RNA2</t>
   </si>
   <si>
-    <t>SRX10234784</t>
-  </si>
-  <si>
     <t>SRX10234785_RNA2</t>
   </si>
   <si>
-    <t>SRX10234785</t>
-  </si>
-  <si>
     <t>SRX10234786_RNA2</t>
   </si>
   <si>
-    <t>SRX10234786</t>
-  </si>
-  <si>
     <t>SRX10234787_RNA2</t>
   </si>
   <si>
-    <t>SRX10234787</t>
-  </si>
-  <si>
     <t>SRX10234788_RNA2</t>
   </si>
   <si>
-    <t>SRX10234788</t>
-  </si>
-  <si>
     <t>SRX10234789_RNA2</t>
   </si>
   <si>
-    <t>SRX10234789</t>
-  </si>
-  <si>
     <t>SRX10234790_RNA2</t>
   </si>
   <si>
-    <t>SRX10234790</t>
+    <t>PV185866</t>
+  </si>
+  <si>
+    <t>PV185868</t>
+  </si>
+  <si>
+    <t>PV185870</t>
+  </si>
+  <si>
+    <t>PV185872</t>
+  </si>
+  <si>
+    <t>PV185874</t>
+  </si>
+  <si>
+    <t>PV185876</t>
+  </si>
+  <si>
+    <t>PV185878</t>
+  </si>
+  <si>
+    <t> PV185881</t>
+  </si>
+  <si>
+    <t>PV185883</t>
+  </si>
+  <si>
+    <t>PV185885</t>
+  </si>
+  <si>
+    <t>PV185887</t>
+  </si>
+  <si>
+    <t>PV185889</t>
+  </si>
+  <si>
+    <t>PV185891</t>
+  </si>
+  <si>
+    <t>PV185893</t>
   </si>
 </sst>
 </file>
@@ -1767,11 +1767,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64DCA32-379A-8542-91DE-2D3EB11B49A9}">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165:XFD179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -4148,10 +4151,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>281</v>
+      </c>
+      <c r="B148" t="s">
         <v>267</v>
-      </c>
-      <c r="B148" t="s">
-        <v>268</v>
       </c>
       <c r="C148" t="s">
         <v>221</v>
@@ -4165,10 +4168,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="B149" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C149" t="s">
         <v>221</v>
@@ -4182,10 +4185,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B150" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C150" t="s">
         <v>221</v>
@@ -4199,10 +4202,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B151" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C151" t="s">
         <v>221</v>
@@ -4216,10 +4219,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B152" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C152" t="s">
         <v>221</v>
@@ -4233,10 +4236,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B153" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C153" t="s">
         <v>221</v>
@@ -4250,10 +4253,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B154" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C154" t="s">
         <v>221</v>
@@ -4267,10 +4270,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B155" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C155" t="s">
         <v>221</v>
@@ -4284,10 +4287,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B156" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C156" t="s">
         <v>221</v>
@@ -4301,10 +4304,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B157" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C157" t="s">
         <v>221</v>
@@ -4318,10 +4321,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B158" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C158" t="s">
         <v>221</v>
@@ -4335,10 +4338,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B159" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C159" t="s">
         <v>221</v>
@@ -4352,10 +4355,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B160" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C160" t="s">
         <v>221</v>
@@ -4369,10 +4372,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B161" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C161" t="s">
         <v>221</v>
